--- a/Conv_TF_UI/Regester_Define.xlsx
+++ b/Conv_TF_UI/Regester_Define.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="15264" activeTab="2"/>
+    <workbookView windowWidth="29868" windowHeight="15264"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="656">
   <si>
     <t>Manual</t>
   </si>
@@ -30,6 +30,9 @@
     <t>D1.0</t>
   </si>
   <si>
+    <t>M600</t>
+  </si>
+  <si>
     <t>Băng tải belt quay thuận</t>
   </si>
   <si>
@@ -42,6 +45,9 @@
     <t>D1.1</t>
   </si>
   <si>
+    <t>M601</t>
+  </si>
+  <si>
     <t>Băng tải belt quay nghịch</t>
   </si>
   <si>
@@ -51,6 +57,9 @@
     <t>D1.2</t>
   </si>
   <si>
+    <t>M602</t>
+  </si>
+  <si>
     <t>Xylank đẩy kẹp thùng băng tải belt</t>
   </si>
   <si>
@@ -60,6 +69,9 @@
     <t>D1.3</t>
   </si>
   <si>
+    <t>M603</t>
+  </si>
+  <si>
     <t>Xylank lùi kẹp thùng băng tải belt</t>
   </si>
   <si>
@@ -69,6 +81,9 @@
     <t>D1.4</t>
   </si>
   <si>
+    <t>M604</t>
+  </si>
+  <si>
     <t xml:space="preserve">xylank đẩy kẹp tấm </t>
   </si>
   <si>
@@ -78,6 +93,9 @@
     <t>D1.5</t>
   </si>
   <si>
+    <t>M605</t>
+  </si>
+  <si>
     <t xml:space="preserve">xylank lùi kẹp tấm </t>
   </si>
   <si>
@@ -87,6 +105,9 @@
     <t>D1.6</t>
   </si>
   <si>
+    <t>M606</t>
+  </si>
+  <si>
     <t>Hút chân không</t>
   </si>
   <si>
@@ -96,6 +117,9 @@
     <t>D1.7</t>
   </si>
   <si>
+    <t>M607</t>
+  </si>
+  <si>
     <t>Xylank hạ tấm</t>
   </si>
   <si>
@@ -105,6 +129,9 @@
     <t>D1.8</t>
   </si>
   <si>
+    <t>M608</t>
+  </si>
+  <si>
     <t>Xylank nâng tấm</t>
   </si>
   <si>
@@ -114,6 +141,9 @@
     <t>D1.9</t>
   </si>
   <si>
+    <t>M609</t>
+  </si>
+  <si>
     <t>Xylank hạ cụm nâng tấm</t>
   </si>
   <si>
@@ -123,6 +153,9 @@
     <t>D2.0</t>
   </si>
   <si>
+    <t>M610</t>
+  </si>
+  <si>
     <t>Xylank nâng cụm nâng tấm</t>
   </si>
   <si>
@@ -132,6 +165,9 @@
     <t>D2.1</t>
   </si>
   <si>
+    <t>M611</t>
+  </si>
+  <si>
     <t>Xylank đẩy hạ thùng</t>
   </si>
   <si>
@@ -141,6 +177,9 @@
     <t>D2.2</t>
   </si>
   <si>
+    <t>M612</t>
+  </si>
+  <si>
     <t>XYlank lùi hạ thùng</t>
   </si>
   <si>
@@ -150,6 +189,9 @@
     <t>D2.3</t>
   </si>
   <si>
+    <t>M613</t>
+  </si>
+  <si>
     <t>Xylank đẩy kẹp thùng cụm cấp thùng</t>
   </si>
   <si>
@@ -159,6 +201,9 @@
     <t>D2.4</t>
   </si>
   <si>
+    <t>M614</t>
+  </si>
+  <si>
     <t>Xylank Lùi kẹp thùng cụm cấp thùng</t>
   </si>
   <si>
@@ -168,6 +213,9 @@
     <t>D2.5</t>
   </si>
   <si>
+    <t>M615</t>
+  </si>
+  <si>
     <t>Xylank đẩy kẹp hạ thùng</t>
   </si>
   <si>
@@ -177,6 +225,9 @@
     <t>D2.6</t>
   </si>
   <si>
+    <t>M616</t>
+  </si>
+  <si>
     <t>Xylank lùi kẹp hạ thùng</t>
   </si>
   <si>
@@ -186,6 +237,9 @@
     <t>D2.7</t>
   </si>
   <si>
+    <t>M617</t>
+  </si>
+  <si>
     <t>Quay 180 lấy tấm</t>
   </si>
   <si>
@@ -195,126 +249,195 @@
     <t>D2.8</t>
   </si>
   <si>
+    <t>M618</t>
+  </si>
+  <si>
     <t>Về gốc</t>
   </si>
   <si>
     <t>CỤM 2</t>
   </si>
   <si>
+    <t>M619</t>
+  </si>
+  <si>
     <t>MAN FWD CONVEYOR BELT 2</t>
   </si>
   <si>
     <t>D3.0</t>
   </si>
   <si>
+    <t>M620</t>
+  </si>
+  <si>
     <t>MAN REV CONVEYOR BELT 2</t>
   </si>
   <si>
     <t>D3.1</t>
   </si>
   <si>
+    <t>M621</t>
+  </si>
+  <si>
     <t>MAN KẸP THÙNG 2-1</t>
   </si>
   <si>
     <t>D3.2</t>
   </si>
   <si>
+    <t>M622</t>
+  </si>
+  <si>
     <t>MAN KẸP THÙNG 2-2</t>
   </si>
   <si>
     <t>D3.3</t>
   </si>
   <si>
+    <t>M623</t>
+  </si>
+  <si>
     <t>D3.4</t>
   </si>
   <si>
+    <t>M624</t>
+  </si>
+  <si>
     <t>D3.5</t>
   </si>
   <si>
+    <t>M625</t>
+  </si>
+  <si>
     <t>MAN HÚT 2-1</t>
   </si>
   <si>
     <t>D3.6</t>
   </si>
   <si>
+    <t>M626</t>
+  </si>
+  <si>
     <t>D3.7</t>
   </si>
   <si>
+    <t>M627</t>
+  </si>
+  <si>
     <t>MAN NÂNG HẠ TẤM 2-1</t>
   </si>
   <si>
     <t>D3.8</t>
   </si>
   <si>
+    <t>M628</t>
+  </si>
+  <si>
     <t>MAN NÂNG HẠ TẤM 2-2</t>
   </si>
   <si>
     <t>D3.9</t>
   </si>
   <si>
+    <t>M629</t>
+  </si>
+  <si>
     <t>MAN NÂNG HẠ CỤM 2-1</t>
   </si>
   <si>
     <t>D4.0</t>
   </si>
   <si>
+    <t>M630</t>
+  </si>
+  <si>
     <t>MAN NÂNG HẠ CỤM 2-2</t>
   </si>
   <si>
     <t>D4.1</t>
   </si>
   <si>
+    <t>M631</t>
+  </si>
+  <si>
     <t>MAN HẠ THÙNG 2</t>
   </si>
   <si>
     <t>D4.2</t>
   </si>
   <si>
+    <t>M632</t>
+  </si>
+  <si>
     <t>MAN KẸP THÙNG CỤM CẤP 2-1</t>
   </si>
   <si>
     <t>D4.3</t>
   </si>
   <si>
+    <t>M633</t>
+  </si>
+  <si>
     <t>MAN KẸP THÙNG CỤM CẤP 2-2</t>
   </si>
   <si>
     <t>D4.4</t>
   </si>
   <si>
+    <t>M634</t>
+  </si>
+  <si>
     <t>MAN KẸP HẠ THÙNG 2-1</t>
   </si>
   <si>
     <t>D4.5</t>
   </si>
   <si>
+    <t>M635</t>
+  </si>
+  <si>
     <t>MAN KẸP HẠ THÙNG 2-2</t>
   </si>
   <si>
     <t>D4.6</t>
   </si>
   <si>
+    <t>M636</t>
+  </si>
+  <si>
     <t>MAN XYLANH 2 QUAY 180</t>
   </si>
   <si>
     <t>D4.7</t>
   </si>
   <si>
+    <t>M637</t>
+  </si>
+  <si>
     <t>MAN XYLANH 2 QUAY 0</t>
   </si>
   <si>
     <t>D4.8</t>
   </si>
   <si>
+    <t>M638</t>
+  </si>
+  <si>
     <t>CỤM FINISH</t>
   </si>
   <si>
+    <t>M639</t>
+  </si>
+  <si>
     <t>MAN CONVEYOR ROLLER 1</t>
   </si>
   <si>
     <t>D5.0</t>
   </si>
   <si>
+    <t>M640</t>
+  </si>
+  <si>
     <t>Chạy băng tải roller cụm 1</t>
   </si>
   <si>
@@ -324,6 +447,9 @@
     <t>D5.1</t>
   </si>
   <si>
+    <t>M641</t>
+  </si>
+  <si>
     <t>Chạy quay thuận băng tải chuyển thùng roller</t>
   </si>
   <si>
@@ -333,6 +459,9 @@
     <t>D5.2</t>
   </si>
   <si>
+    <t>M642</t>
+  </si>
+  <si>
     <t>Chạy nghịch thuận băng tải chuyển thùng roller</t>
   </si>
   <si>
@@ -342,6 +471,9 @@
     <t>D5.3</t>
   </si>
   <si>
+    <t>M643</t>
+  </si>
+  <si>
     <t>Chạy băng tải roller cụm 2</t>
   </si>
   <si>
@@ -351,6 +483,9 @@
     <t>D5.4</t>
   </si>
   <si>
+    <t>M644</t>
+  </si>
+  <si>
     <t>Chạy băng tải Finsh</t>
   </si>
   <si>
@@ -360,6 +495,9 @@
     <t>D5.5</t>
   </si>
   <si>
+    <t>M645</t>
+  </si>
+  <si>
     <t>Xylank Hạ Stopper 1</t>
   </si>
   <si>
@@ -369,6 +507,9 @@
     <t>D5.6</t>
   </si>
   <si>
+    <t>M646</t>
+  </si>
+  <si>
     <t>Xylank Đẩy Stopper 1</t>
   </si>
   <si>
@@ -378,6 +519,9 @@
     <t>D5.7</t>
   </si>
   <si>
+    <t>M647</t>
+  </si>
+  <si>
     <t>Xylank Hạ Stopper 2</t>
   </si>
   <si>
@@ -387,13 +531,16 @@
     <t>D5.8</t>
   </si>
   <si>
+    <t>M648</t>
+  </si>
+  <si>
     <t>Xylank Đẩy Stopper 2</t>
   </si>
   <si>
     <t>XÓA LỖI</t>
   </si>
   <si>
-    <t>D29=1</t>
+    <t>M651</t>
   </si>
   <si>
     <t xml:space="preserve">Xóa lỗi </t>
@@ -1849,7 +1996,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1868,13 +2015,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -2382,152 +2522,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2563,6 +2703,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2910,38 +3053,40 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="54.8518518518519" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.4259259259259" style="9" customWidth="1"/>
-    <col min="3" max="3" width="60.8518518518519" style="9" customWidth="1"/>
-    <col min="4" max="4" width="18.1388888888889" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="9.13888888888889" style="9"/>
+    <col min="2" max="3" width="11.4259259259259" style="9" customWidth="1"/>
+    <col min="4" max="4" width="60.8518518518519" style="9" customWidth="1"/>
+    <col min="5" max="5" width="18.1388888888889" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9.13888888888889" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -2954,949 +3099,1107 @@
       <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="12" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="12" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>34</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="12" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="12" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="12" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>46</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="12" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="12" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>54</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="12" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>58</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="12" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>62</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>66</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="12" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>70</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="12" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>74</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="12" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>78</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="11" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="C22" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="12" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="12" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="12" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="12" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="12"/>
       <c r="B27" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>93</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="12"/>
       <c r="B28" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="12" t="s">
+      <c r="E39" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="12" t="s">
+      <c r="E40" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="14" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="C42" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="12" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>140</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="12" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>144</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="12" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>148</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="12" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>152</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="12" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>156</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="12" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>160</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="12" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>164</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="12" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>168</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="15" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>170</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
-      <c r="D52" s="12"/>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="D52" s="16"/>
+      <c r="E52" s="12"/>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="18"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="12"/>
       <c r="F53" s="18"/>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" s="18"/>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="19" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E54" s="20"/>
+        <v>174</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>176</v>
+      </c>
       <c r="F54" s="20"/>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="G54" s="20"/>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="21" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
-    </row>
-    <row r="56" ht="18.75" customHeight="1" spans="1:4">
+      <c r="D55" s="21"/>
+    </row>
+    <row r="56" ht="18.75" customHeight="1" spans="1:5">
       <c r="A56" s="20" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>179</v>
+      </c>
+      <c r="C56" s="23"/>
+      <c r="D56" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="20" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="C57" s="23"/>
-      <c r="D57" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" ht="27.75" customHeight="1" spans="1:4">
+      <c r="D57" s="24"/>
+      <c r="E57" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" ht="27.75" customHeight="1" spans="1:5">
       <c r="A58" s="20" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C58" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>184</v>
+      </c>
+      <c r="C58" s="23"/>
+      <c r="D58" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="20" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="C59" s="23"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="21" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
-      <c r="D60" s="25"/>
+      <c r="D60" s="21"/>
       <c r="E60" s="26"/>
       <c r="F60" s="27"/>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60" s="28"/>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="9" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D61" s="28"/>
-      <c r="E61" s="18"/>
+        <v>190</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E61" s="29"/>
       <c r="F61" s="18"/>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61" s="18"/>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="9" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D62" s="18"/>
+        <v>193</v>
+      </c>
       <c r="E62" s="18"/>
       <c r="F62" s="18"/>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62" s="18"/>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="9" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D63" s="18"/>
+        <v>195</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="E63" s="18"/>
       <c r="F63" s="18"/>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63" s="18"/>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="9" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D64" s="18"/>
+        <v>198</v>
+      </c>
       <c r="E64" s="18"/>
       <c r="F64" s="18"/>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64" s="18"/>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="9" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D65" s="28"/>
-      <c r="E65" s="18"/>
+        <v>200</v>
+      </c>
+      <c r="E65" s="29"/>
       <c r="F65" s="18"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="B66" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="C66" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="G65" s="18"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="B66" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="21" t="s">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="D67" s="21"/>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D68" s="30" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>205</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E68" s="31" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="1"/>
       <c r="B69" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D69" s="30"/>
-    </row>
-    <row r="70" spans="1:4">
+        <v>208</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E69" s="31"/>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="1"/>
       <c r="B70" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D70" s="30"/>
-    </row>
-    <row r="71" spans="1:4">
+        <v>210</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E70" s="31"/>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D71" s="31" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>213</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E71" s="32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="1"/>
       <c r="B72" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D72" s="31"/>
-    </row>
-    <row r="73" spans="1:3">
+        <v>216</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E72" s="32"/>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3">
+        <v>219</v>
+      </c>
+      <c r="D73" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
       <c r="B74" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3">
+        <v>221</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
       <c r="B75" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C75" s="32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3">
+        <v>223</v>
+      </c>
+      <c r="D75" s="33" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
       <c r="B76" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C76" s="32" t="s">
-        <v>177</v>
+        <v>225</v>
+      </c>
+      <c r="D76" s="33" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="E71:E72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -3923,7 +4226,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3931,253 +4234,253 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>207</v>
+        <v>256</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>212</v>
+        <v>261</v>
       </c>
       <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>215</v>
+        <v>264</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
       <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
       <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="C28" s="8"/>
     </row>
@@ -4204,7 +4507,7 @@
   <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -4220,13 +4523,13 @@
   <sheetData>
     <row r="1" ht="14.4" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -4244,1267 +4547,1267 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>238</v>
+        <v>287</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>242</v>
+        <v>291</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>246</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>247</v>
+        <v>296</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>252</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>253</v>
+        <v>302</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>254</v>
+        <v>303</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>255</v>
+        <v>304</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>256</v>
+        <v>305</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>257</v>
+        <v>306</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>258</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>260</v>
+        <v>309</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>261</v>
+        <v>310</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>262</v>
+        <v>311</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>267</v>
+        <v>316</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>270</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>271</v>
+        <v>320</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>274</v>
+        <v>323</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>277</v>
+        <v>326</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>278</v>
+        <v>327</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>279</v>
+        <v>328</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>280</v>
+        <v>329</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>281</v>
+        <v>330</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>283</v>
+        <v>332</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>284</v>
+        <v>333</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>285</v>
+        <v>334</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>286</v>
+        <v>335</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>293</v>
+        <v>342</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>296</v>
+        <v>345</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>297</v>
+        <v>346</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>298</v>
+        <v>347</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>299</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>302</v>
+        <v>351</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>303</v>
+        <v>352</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>304</v>
+        <v>353</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>305</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>306</v>
+        <v>355</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>307</v>
+        <v>356</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>313</v>
+        <v>362</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>316</v>
+        <v>365</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>318</v>
+        <v>367</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>320</v>
+        <v>369</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>321</v>
+        <v>370</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>322</v>
+        <v>371</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>323</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>324</v>
+        <v>373</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>325</v>
+        <v>374</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>327</v>
+        <v>376</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>329</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>331</v>
+        <v>380</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>332</v>
+        <v>381</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>337</v>
+        <v>386</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>341</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>346</v>
+        <v>395</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>347</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>348</v>
+        <v>397</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>358</v>
+        <v>407</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>359</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>362</v>
+        <v>411</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>363</v>
+        <v>412</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>364</v>
+        <v>413</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>365</v>
+        <v>414</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>366</v>
+        <v>415</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>367</v>
+        <v>416</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>368</v>
+        <v>417</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>370</v>
+        <v>419</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>371</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>376</v>
+        <v>425</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>377</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>457</v>
+        <v>506</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>458</v>
+        <v>507</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>459</v>
+        <v>508</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>460</v>
+        <v>509</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>461</v>
+        <v>510</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>462</v>
+        <v>511</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>464</v>
+        <v>513</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>465</v>
+        <v>514</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>466</v>
+        <v>515</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>467</v>
+        <v>516</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>468</v>
+        <v>517</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>469</v>
+        <v>518</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>471</v>
+        <v>520</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>472</v>
+        <v>521</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>473</v>
+        <v>522</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>474</v>
+        <v>523</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>475</v>
+        <v>524</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>476</v>
+        <v>525</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>477</v>
+        <v>526</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>478</v>
+        <v>527</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>479</v>
+        <v>528</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>480</v>
+        <v>529</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>481</v>
+        <v>530</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>482</v>
+        <v>531</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>483</v>
+        <v>532</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>484</v>
+        <v>533</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>485</v>
+        <v>534</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>486</v>
+        <v>535</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>487</v>
+        <v>536</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>488</v>
+        <v>537</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>489</v>
+        <v>538</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>490</v>
+        <v>539</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>491</v>
+        <v>540</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>492</v>
+        <v>541</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>493</v>
+        <v>542</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>494</v>
+        <v>543</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>495</v>
+        <v>544</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>496</v>
+        <v>545</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>497</v>
+        <v>546</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>498</v>
+        <v>547</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>499</v>
+        <v>548</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>501</v>
+        <v>550</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>502</v>
+        <v>551</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>503</v>
+        <v>552</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>504</v>
+        <v>553</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>505</v>
+        <v>554</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>506</v>
+        <v>555</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>507</v>
+        <v>556</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>508</v>
+        <v>557</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>509</v>
+        <v>558</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>510</v>
+        <v>559</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>512</v>
+        <v>561</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>513</v>
+        <v>562</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>514</v>
+        <v>563</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>515</v>
+        <v>564</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>516</v>
+        <v>565</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>517</v>
+        <v>566</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>518</v>
+        <v>567</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>519</v>
+        <v>568</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>520</v>
+        <v>569</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>521</v>
+        <v>570</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>522</v>
+        <v>571</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>523</v>
+        <v>572</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>524</v>
+        <v>573</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>525</v>
+        <v>574</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>526</v>
+        <v>575</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>527</v>
+        <v>576</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>528</v>
+        <v>577</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>529</v>
+        <v>578</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>530</v>
+        <v>579</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>531</v>
+        <v>580</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>532</v>
+        <v>581</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>533</v>
+        <v>582</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>534</v>
+        <v>583</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>535</v>
+        <v>584</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>536</v>
+        <v>585</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>537</v>
+        <v>586</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>538</v>
+        <v>587</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>539</v>
+        <v>588</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>540</v>
+        <v>589</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>541</v>
+        <v>590</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>542</v>
+        <v>591</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>543</v>
+        <v>592</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>544</v>
+        <v>593</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>545</v>
+        <v>594</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>546</v>
+        <v>595</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>547</v>
+        <v>596</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>548</v>
+        <v>597</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>549</v>
+        <v>598</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>550</v>
+        <v>599</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>551</v>
+        <v>600</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>552</v>
+        <v>601</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>553</v>
+        <v>602</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>554</v>
+        <v>603</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>555</v>
+        <v>604</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>556</v>
+        <v>605</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>557</v>
+        <v>606</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>558</v>
+        <v>607</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>559</v>
+        <v>608</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>560</v>
+        <v>609</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>561</v>
+        <v>610</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>562</v>
+        <v>611</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>563</v>
+        <v>612</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>564</v>
+        <v>613</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>565</v>
+        <v>614</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>566</v>
+        <v>615</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>567</v>
+        <v>616</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>568</v>
+        <v>617</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>569</v>
+        <v>618</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>570</v>
+        <v>619</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>571</v>
+        <v>620</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>572</v>
+        <v>621</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>573</v>
+        <v>622</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>574</v>
+        <v>623</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>575</v>
+        <v>624</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>576</v>
+        <v>625</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>577</v>
+        <v>626</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>578</v>
+        <v>627</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>579</v>
+        <v>628</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>580</v>
+        <v>629</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>581</v>
+        <v>630</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>582</v>
+        <v>631</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>583</v>
+        <v>632</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>584</v>
+        <v>633</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>585</v>
+        <v>634</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>586</v>
+        <v>635</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>587</v>
+        <v>636</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>588</v>
+        <v>637</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>589</v>
+        <v>638</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>590</v>
+        <v>639</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>591</v>
+        <v>640</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>592</v>
+        <v>641</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>593</v>
+        <v>642</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>594</v>
+        <v>643</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>595</v>
+        <v>644</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>596</v>
+        <v>645</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>597</v>
+        <v>646</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>598</v>
+        <v>647</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>599</v>
+        <v>648</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>600</v>
+        <v>649</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>601</v>
+        <v>650</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>602</v>
+        <v>651</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>603</v>
+        <v>652</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>604</v>
+        <v>653</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>605</v>
+        <v>654</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>606</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>
